--- a/Lastenheft.xlsx
+++ b/Lastenheft.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kun\Desktop\Uni\Automatisierungstechnik\ProjektaufgabeAT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ghaith\Desktop\AT_Projekt\ProjektaufgabeAT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F995FC8-B1E9-43D9-8FEF-884DBD767D9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1712B426-55DF-44D9-82CD-B19576497759}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{E4E73985-AD34-4956-8EC5-0CD954F84F90}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E4E73985-AD34-4956-8EC5-0CD954F84F90}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -202,11 +202,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -523,216 +522,216 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E694C343-0044-41E0-AE51-9EAB4E42A7FC}">
   <dimension ref="A1:A42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="63.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="63.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>38</v>
       </c>
